--- a/Test Data/Test Data.xlsx
+++ b/Test Data/Test Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t>All Safari Brands Bads Results are displayed</t>
   </si>
@@ -33,18 +33,15 @@
     <t>MBM USA Stores</t>
   </si>
   <si>
-    <t>PearlEarr</t>
-  </si>
-  <si>
     <t>Fashion Menu Page is displayed</t>
   </si>
   <si>
-    <t>BeautyPro</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>TC_002</t>
   </si>
   <si>
@@ -63,7 +60,10 @@
     <t>1-48 of over 10,000 results</t>
   </si>
   <si>
-    <t>productTitle</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>TC_017</t>
@@ -72,6 +72,9 @@
     <t>TC_024</t>
   </si>
   <si>
+    <t>"Hair Growth"</t>
+  </si>
+  <si>
     <t>5 results</t>
   </si>
   <si>
@@ -87,15 +90,15 @@
     <t>Pay On delivery page is displayed</t>
   </si>
   <si>
-    <t>GIVA Pearl Earrings For Women</t>
-  </si>
-  <si>
     <t>Footwear</t>
   </si>
   <si>
     <t>Size</t>
   </si>
   <si>
+    <t>Footwear Brands Displayed</t>
+  </si>
+  <si>
     <t>TC_003</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
     <t>Today's Deals_2</t>
   </si>
   <si>
-    <t>Footwear displayed</t>
-  </si>
-  <si>
     <t>Avg. Customer Review</t>
   </si>
   <si>
@@ -180,6 +180,12 @@
     <t>Material</t>
   </si>
   <si>
+    <t>Dang_Drop</t>
+  </si>
+  <si>
+    <t>Dangle &amp; Drop</t>
+  </si>
+  <si>
     <t>TC_008</t>
   </si>
   <si>
@@ -201,15 +207,15 @@
     <t>Discount</t>
   </si>
   <si>
+    <t>Include Out of Stock</t>
+  </si>
+  <si>
+    <t>₹ ₹ Go</t>
+  </si>
+  <si>
     <t>Canvas</t>
   </si>
   <si>
-    <t>Include Out of Stock</t>
-  </si>
-  <si>
-    <t>₹ ₹ Go</t>
-  </si>
-  <si>
     <t>BrandChecBox</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t>PriceRange</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>TC_005</t>
   </si>
   <si>
@@ -249,19 +258,16 @@
     <t>URL</t>
   </si>
   <si>
+    <t>TC_001</t>
+  </si>
+  <si>
     <t>TC_009</t>
   </si>
   <si>
     <t>TC_016</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TC_001</t>
+    <t>Beauty</t>
   </si>
 </sst>
 </file>
@@ -342,7 +348,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
@@ -634,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,13 +663,13 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
         <v>43</v>
@@ -670,440 +677,485 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3:D25" r:id="rId1" display="www.amazon.in"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
